--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H2">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I2">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J2">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0596540671799136</v>
+        <v>0.08892266666666665</v>
       </c>
       <c r="N2">
-        <v>0.0596540671799136</v>
+        <v>0.2667679999999999</v>
       </c>
       <c r="O2">
-        <v>0.01951640774000066</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="P2">
-        <v>0.01951640774000066</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="Q2">
-        <v>0.9508266954402217</v>
+        <v>1.538680565402666</v>
       </c>
       <c r="R2">
-        <v>0.9508266954402217</v>
+        <v>13.848125088624</v>
       </c>
       <c r="S2">
-        <v>0.003242642797748939</v>
+        <v>0.00456976720825289</v>
       </c>
       <c r="T2">
-        <v>0.003242642797748939</v>
+        <v>0.00456976720825289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H3">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I3">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J3">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.37386552016092</v>
+        <v>2.385495</v>
       </c>
       <c r="N3">
-        <v>2.37386552016092</v>
+        <v>7.156485</v>
       </c>
       <c r="O3">
-        <v>0.7766331719120242</v>
+        <v>0.7513293565409361</v>
       </c>
       <c r="P3">
-        <v>0.7766331719120242</v>
+        <v>0.7513293565409359</v>
       </c>
       <c r="Q3">
-        <v>37.83706316531089</v>
+        <v>41.277605957595</v>
       </c>
       <c r="R3">
-        <v>37.83706316531089</v>
+        <v>371.498453618355</v>
       </c>
       <c r="S3">
-        <v>0.1290372693040156</v>
+        <v>0.1225914295543457</v>
       </c>
       <c r="T3">
-        <v>0.1290372693040156</v>
+        <v>0.1225914295543457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H4">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I4">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J4">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.623091443471314</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N4">
-        <v>0.623091443471314</v>
+        <v>0.039526</v>
       </c>
       <c r="O4">
-        <v>0.2038504203479752</v>
+        <v>0.004149669026992586</v>
       </c>
       <c r="P4">
-        <v>0.2038504203479752</v>
+        <v>0.004149669026992585</v>
       </c>
       <c r="Q4">
-        <v>9.93145993492954</v>
+        <v>0.2279804475353333</v>
       </c>
       <c r="R4">
-        <v>9.93145993492954</v>
+        <v>2.051824027818</v>
       </c>
       <c r="S4">
-        <v>0.03386966014266277</v>
+        <v>0.0006770850277147325</v>
       </c>
       <c r="T4">
-        <v>0.03386966014266277</v>
+        <v>0.0006770850277147323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.3177293369904</v>
+        <v>17.303581</v>
       </c>
       <c r="H5">
-        <v>37.3177293369904</v>
+        <v>51.910743</v>
       </c>
       <c r="I5">
-        <v>0.3890031610705783</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J5">
-        <v>0.3890031610705783</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0596540671799136</v>
+        <v>0.6874393333333333</v>
       </c>
       <c r="N5">
-        <v>0.0596540671799136</v>
+        <v>2.062318</v>
       </c>
       <c r="O5">
-        <v>0.01951640774000066</v>
+        <v>0.216514120538615</v>
       </c>
       <c r="P5">
-        <v>0.01951640774000066</v>
+        <v>0.216514120538615</v>
       </c>
       <c r="Q5">
-        <v>2.226154332870658</v>
+        <v>11.89516218691933</v>
       </c>
       <c r="R5">
-        <v>2.226154332870658</v>
+        <v>107.056459682274</v>
       </c>
       <c r="S5">
-        <v>0.007591944303602559</v>
+        <v>0.03532774984027202</v>
       </c>
       <c r="T5">
-        <v>0.007591944303602559</v>
+        <v>0.03532774984027201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H6">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I6">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J6">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.37386552016092</v>
+        <v>0.08892266666666665</v>
       </c>
       <c r="N6">
-        <v>2.37386552016092</v>
+        <v>0.2667679999999999</v>
       </c>
       <c r="O6">
-        <v>0.7766331719120242</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="P6">
-        <v>0.7766331719120242</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="Q6">
-        <v>88.58727096377915</v>
+        <v>3.400540247775999</v>
       </c>
       <c r="R6">
-        <v>88.58727096377915</v>
+        <v>30.60486222998399</v>
       </c>
       <c r="S6">
-        <v>0.3021127588660473</v>
+        <v>0.01009935243483384</v>
       </c>
       <c r="T6">
-        <v>0.3021127588660473</v>
+        <v>0.01009935243483384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H7">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I7">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J7">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.623091443471314</v>
+        <v>2.385495</v>
       </c>
       <c r="N7">
-        <v>0.623091443471314</v>
+        <v>7.156485</v>
       </c>
       <c r="O7">
-        <v>0.2038504203479752</v>
+        <v>0.7513293565409361</v>
       </c>
       <c r="P7">
-        <v>0.2038504203479752</v>
+        <v>0.7513293565409359</v>
       </c>
       <c r="Q7">
-        <v>23.25235783965715</v>
+        <v>91.22501677527001</v>
       </c>
       <c r="R7">
-        <v>23.25235783965715</v>
+        <v>821.02515097743</v>
       </c>
       <c r="S7">
-        <v>0.07929845790092847</v>
+        <v>0.2709315368020221</v>
       </c>
       <c r="T7">
-        <v>0.07929845790092847</v>
+        <v>0.2709315368020221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1036877369472</v>
+        <v>38.241546</v>
       </c>
       <c r="H8">
-        <v>14.1036877369472</v>
+        <v>114.724638</v>
       </c>
       <c r="I8">
-        <v>0.1470180316407021</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J8">
-        <v>0.1470180316407021</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.0596540671799136</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N8">
-        <v>0.0596540671799136</v>
+        <v>0.039526</v>
       </c>
       <c r="O8">
-        <v>0.01951640774000066</v>
+        <v>0.004149669026992586</v>
       </c>
       <c r="P8">
-        <v>0.01951640774000066</v>
+        <v>0.004149669026992585</v>
       </c>
       <c r="Q8">
-        <v>0.8413423357443719</v>
+        <v>0.503845115732</v>
       </c>
       <c r="R8">
-        <v>0.8413423357443719</v>
+        <v>4.534606041588</v>
       </c>
       <c r="S8">
-        <v>0.00286926385063226</v>
+        <v>0.001496382640868628</v>
       </c>
       <c r="T8">
-        <v>0.00286926385063226</v>
+        <v>0.001496382640868628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1036877369472</v>
+        <v>38.241546</v>
       </c>
       <c r="H9">
-        <v>14.1036877369472</v>
+        <v>114.724638</v>
       </c>
       <c r="I9">
-        <v>0.1470180316407021</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J9">
-        <v>0.1470180316407021</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.37386552016092</v>
+        <v>0.6874393333333333</v>
       </c>
       <c r="N9">
-        <v>2.37386552016092</v>
+        <v>2.062318</v>
       </c>
       <c r="O9">
-        <v>0.7766331719120242</v>
+        <v>0.216514120538615</v>
       </c>
       <c r="P9">
-        <v>0.7766331719120242</v>
+        <v>0.216514120538615</v>
       </c>
       <c r="Q9">
-        <v>33.48025802585535</v>
+        <v>26.288742887876</v>
       </c>
       <c r="R9">
-        <v>33.48025802585535</v>
+        <v>236.598685990884</v>
       </c>
       <c r="S9">
-        <v>0.1141790802413808</v>
+        <v>0.0780756174455019</v>
       </c>
       <c r="T9">
-        <v>0.1141790802413808</v>
+        <v>0.07807561744550189</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H10">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I10">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J10">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.623091443471314</v>
+        <v>0.08892266666666665</v>
       </c>
       <c r="N10">
-        <v>0.623091443471314</v>
+        <v>0.2667679999999999</v>
       </c>
       <c r="O10">
-        <v>0.2038504203479752</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="P10">
-        <v>0.2038504203479752</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="Q10">
-        <v>8.787887150283099</v>
+        <v>1.697357461941333</v>
       </c>
       <c r="R10">
-        <v>8.787887150283099</v>
+        <v>15.276217157472</v>
       </c>
       <c r="S10">
-        <v>0.02996968754868903</v>
+        <v>0.005041025827367233</v>
       </c>
       <c r="T10">
-        <v>0.02996968754868903</v>
+        <v>0.005041025827367233</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,122 +1092,122 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.877207587949</v>
+        <v>19.088018</v>
       </c>
       <c r="H11">
-        <v>19.877207587949</v>
+        <v>57.264054</v>
       </c>
       <c r="I11">
-        <v>0.2072016899834195</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J11">
-        <v>0.2072016899834195</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0596540671799136</v>
+        <v>2.385495</v>
       </c>
       <c r="N11">
-        <v>0.0596540671799136</v>
+        <v>7.156485</v>
       </c>
       <c r="O11">
-        <v>0.01951640774000066</v>
+        <v>0.7513293565409361</v>
       </c>
       <c r="P11">
-        <v>0.01951640774000066</v>
+        <v>0.7513293565409359</v>
       </c>
       <c r="Q11">
-        <v>1.185756276800598</v>
+        <v>45.53437149891001</v>
       </c>
       <c r="R11">
-        <v>1.185756276800598</v>
+        <v>409.80934349019</v>
       </c>
       <c r="S11">
-        <v>0.004043832666133626</v>
+        <v>0.1352337076342223</v>
       </c>
       <c r="T11">
-        <v>0.004043832666133626</v>
+        <v>0.1352337076342222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.877207587949</v>
+        <v>19.088018</v>
       </c>
       <c r="H12">
-        <v>19.877207587949</v>
+        <v>57.264054</v>
       </c>
       <c r="I12">
-        <v>0.2072016899834195</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J12">
-        <v>0.2072016899834195</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.37386552016092</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N12">
-        <v>2.37386552016092</v>
+        <v>0.039526</v>
       </c>
       <c r="O12">
-        <v>0.7766331719120242</v>
+        <v>0.004149669026992586</v>
       </c>
       <c r="P12">
-        <v>0.7766331719120242</v>
+        <v>0.004149669026992585</v>
       </c>
       <c r="Q12">
-        <v>47.18581773011314</v>
+        <v>0.2514909998226666</v>
       </c>
       <c r="R12">
-        <v>47.18581773011314</v>
+        <v>2.263418998404</v>
       </c>
       <c r="S12">
-        <v>0.160919705717355</v>
+        <v>0.0007469096250394249</v>
       </c>
       <c r="T12">
-        <v>0.160919705717355</v>
+        <v>0.0007469096250394247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.877207587949</v>
+        <v>19.088018</v>
       </c>
       <c r="H13">
-        <v>19.877207587949</v>
+        <v>57.264054</v>
       </c>
       <c r="I13">
-        <v>0.2072016899834195</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J13">
-        <v>0.2072016899834195</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.623091443471314</v>
+        <v>0.6874393333333333</v>
       </c>
       <c r="N13">
-        <v>0.623091443471314</v>
+        <v>2.062318</v>
       </c>
       <c r="O13">
-        <v>0.2038504203479752</v>
+        <v>0.216514120538615</v>
       </c>
       <c r="P13">
-        <v>0.2038504203479752</v>
+        <v>0.216514120538615</v>
       </c>
       <c r="Q13">
-        <v>12.3853179681541</v>
+        <v>13.12185436857467</v>
       </c>
       <c r="R13">
-        <v>12.3853179681541</v>
+        <v>118.096689317172</v>
       </c>
       <c r="S13">
-        <v>0.04223815159993091</v>
+        <v>0.03897093467823854</v>
       </c>
       <c r="T13">
-        <v>0.04223815159993091</v>
+        <v>0.03897093467823853</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.13336968115137</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H14">
-        <v>6.13336968115137</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I14">
-        <v>0.06393476335167465</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J14">
-        <v>0.06393476335167465</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0596540671799136</v>
+        <v>0.08892266666666665</v>
       </c>
       <c r="N14">
-        <v>0.0596540671799136</v>
+        <v>0.2667679999999999</v>
       </c>
       <c r="O14">
-        <v>0.01951640774000066</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="P14">
-        <v>0.01951640774000066</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="Q14">
-        <v>0.3658804469986491</v>
+        <v>1.940751012654222</v>
       </c>
       <c r="R14">
-        <v>0.3658804469986491</v>
+        <v>17.466759113888</v>
       </c>
       <c r="S14">
-        <v>0.001247776910331734</v>
+        <v>0.005763886628859794</v>
       </c>
       <c r="T14">
-        <v>0.001247776910331734</v>
+        <v>0.005763886628859793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.13336968115137</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H15">
-        <v>6.13336968115137</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I15">
-        <v>0.06393476335167465</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J15">
-        <v>0.06393476335167465</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.37386552016092</v>
+        <v>2.385495</v>
       </c>
       <c r="N15">
-        <v>2.37386552016092</v>
+        <v>7.156485</v>
       </c>
       <c r="O15">
-        <v>0.7766331719120242</v>
+        <v>0.7513293565409361</v>
       </c>
       <c r="P15">
-        <v>0.7766331719120242</v>
+        <v>0.7513293565409359</v>
       </c>
       <c r="Q15">
-        <v>14.55979480848561</v>
+        <v>52.06379892189001</v>
       </c>
       <c r="R15">
-        <v>14.55979480848561</v>
+        <v>468.5741902970101</v>
       </c>
       <c r="S15">
-        <v>0.04965385805725572</v>
+        <v>0.1546256230175122</v>
       </c>
       <c r="T15">
-        <v>0.04965385805725572</v>
+        <v>0.1546256230175121</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.13336968115137</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H16">
-        <v>6.13336968115137</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I16">
-        <v>0.06393476335167465</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J16">
-        <v>0.06393476335167465</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.623091443471314</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N16">
-        <v>0.623091443471314</v>
+        <v>0.039526</v>
       </c>
       <c r="O16">
-        <v>0.2038504203479752</v>
+        <v>0.004149669026992586</v>
       </c>
       <c r="P16">
-        <v>0.2038504203479752</v>
+        <v>0.004149669026992585</v>
       </c>
       <c r="Q16">
-        <v>3.8216501679718</v>
+        <v>0.2875536965684445</v>
       </c>
       <c r="R16">
-        <v>3.8216501679718</v>
+        <v>2.587983269116001</v>
       </c>
       <c r="S16">
-        <v>0.01303312838408719</v>
+        <v>0.0008540131608450499</v>
       </c>
       <c r="T16">
-        <v>0.01303312838408719</v>
+        <v>0.0008540131608450496</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.56068356959828</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H17">
-        <v>2.56068356959828</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I17">
-        <v>0.02669278170919811</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J17">
-        <v>0.02669278170919811</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0596540671799136</v>
+        <v>0.6874393333333333</v>
       </c>
       <c r="N17">
-        <v>0.0596540671799136</v>
+        <v>2.062318</v>
       </c>
       <c r="O17">
-        <v>0.01951640774000066</v>
+        <v>0.216514120538615</v>
       </c>
       <c r="P17">
-        <v>0.01951640774000066</v>
+        <v>0.216514120538615</v>
       </c>
       <c r="Q17">
-        <v>0.1527551896873168</v>
+        <v>15.00347023224311</v>
       </c>
       <c r="R17">
-        <v>0.1527551896873168</v>
+        <v>135.031232090188</v>
       </c>
       <c r="S17">
-        <v>0.0005209472115515421</v>
+        <v>0.0445591942986298</v>
       </c>
       <c r="T17">
-        <v>0.0005209472115515421</v>
+        <v>0.04455919429862979</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.56068356959828</v>
+        <v>6.432258</v>
       </c>
       <c r="H18">
-        <v>2.56068356959828</v>
+        <v>19.296774</v>
       </c>
       <c r="I18">
-        <v>0.02669278170919811</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J18">
-        <v>0.02669278170919811</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.37386552016092</v>
+        <v>0.08892266666666665</v>
       </c>
       <c r="N18">
-        <v>2.37386552016092</v>
+        <v>0.2667679999999999</v>
       </c>
       <c r="O18">
-        <v>0.7766331719120242</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="P18">
-        <v>0.7766331719120242</v>
+        <v>0.02800685389345641</v>
       </c>
       <c r="Q18">
-        <v>6.078718433911943</v>
+        <v>0.5719735340479999</v>
       </c>
       <c r="R18">
-        <v>6.078718433911943</v>
+        <v>5.147761806431999</v>
       </c>
       <c r="S18">
-        <v>0.02073049972596979</v>
+        <v>0.001698718992526594</v>
       </c>
       <c r="T18">
-        <v>0.02073049972596979</v>
+        <v>0.001698718992526594</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.432258</v>
+      </c>
+      <c r="H19">
+        <v>19.296774</v>
+      </c>
+      <c r="I19">
+        <v>0.06065368852170459</v>
+      </c>
+      <c r="J19">
+        <v>0.06065368852170459</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.385495</v>
+      </c>
+      <c r="N19">
+        <v>7.156485</v>
+      </c>
+      <c r="O19">
+        <v>0.7513293565409361</v>
+      </c>
+      <c r="P19">
+        <v>0.7513293565409359</v>
+      </c>
+      <c r="Q19">
+        <v>15.34411929771</v>
+      </c>
+      <c r="R19">
+        <v>138.09707367939</v>
+      </c>
+      <c r="S19">
+        <v>0.04557089676884667</v>
+      </c>
+      <c r="T19">
+        <v>0.04557089676884666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.432258</v>
+      </c>
+      <c r="H20">
+        <v>19.296774</v>
+      </c>
+      <c r="I20">
+        <v>0.06065368852170459</v>
+      </c>
+      <c r="J20">
+        <v>0.06065368852170459</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01317533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.039526</v>
+      </c>
+      <c r="O20">
+        <v>0.004149669026992586</v>
+      </c>
+      <c r="P20">
+        <v>0.004149669026992585</v>
+      </c>
+      <c r="Q20">
+        <v>0.08474714323599999</v>
+      </c>
+      <c r="R20">
+        <v>0.7627242891239999</v>
+      </c>
+      <c r="S20">
+        <v>0.0002516927326313733</v>
+      </c>
+      <c r="T20">
+        <v>0.0002516927326313732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.432258</v>
+      </c>
+      <c r="H21">
+        <v>19.296774</v>
+      </c>
+      <c r="I21">
+        <v>0.06065368852170459</v>
+      </c>
+      <c r="J21">
+        <v>0.06065368852170459</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6874393333333333</v>
+      </c>
+      <c r="N21">
+        <v>2.062318</v>
+      </c>
+      <c r="O21">
+        <v>0.216514120538615</v>
+      </c>
+      <c r="P21">
+        <v>0.216514120538615</v>
+      </c>
+      <c r="Q21">
+        <v>4.421787151348</v>
+      </c>
+      <c r="R21">
+        <v>39.79608436213199</v>
+      </c>
+      <c r="S21">
+        <v>0.01313238002769996</v>
+      </c>
+      <c r="T21">
+        <v>0.01313238002769995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.56068356959828</v>
-      </c>
-      <c r="H19">
-        <v>2.56068356959828</v>
-      </c>
-      <c r="I19">
-        <v>0.02669278170919811</v>
-      </c>
-      <c r="J19">
-        <v>0.02669278170919811</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.623091443471314</v>
-      </c>
-      <c r="N19">
-        <v>0.623091443471314</v>
-      </c>
-      <c r="O19">
-        <v>0.2038504203479752</v>
-      </c>
-      <c r="P19">
-        <v>0.2038504203479752</v>
-      </c>
-      <c r="Q19">
-        <v>1.595540021654269</v>
-      </c>
-      <c r="R19">
-        <v>1.595540021654269</v>
-      </c>
-      <c r="S19">
-        <v>0.005441334771676778</v>
-      </c>
-      <c r="T19">
-        <v>0.005441334771676778</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.158358999999999</v>
+      </c>
+      <c r="H22">
+        <v>9.475076999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.02978209565376923</v>
+      </c>
+      <c r="J22">
+        <v>0.02978209565376923</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.08892266666666665</v>
+      </c>
+      <c r="N22">
+        <v>0.2667679999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.02800685389345641</v>
+      </c>
+      <c r="P22">
+        <v>0.02800685389345641</v>
+      </c>
+      <c r="Q22">
+        <v>0.2808497045706665</v>
+      </c>
+      <c r="R22">
+        <v>2.527647341135999</v>
+      </c>
+      <c r="S22">
+        <v>0.0008341028016160579</v>
+      </c>
+      <c r="T22">
+        <v>0.0008341028016160579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.158358999999999</v>
+      </c>
+      <c r="H23">
+        <v>9.475076999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.02978209565376923</v>
+      </c>
+      <c r="J23">
+        <v>0.02978209565376923</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.385495</v>
+      </c>
+      <c r="N23">
+        <v>7.156485</v>
+      </c>
+      <c r="O23">
+        <v>0.7513293565409361</v>
+      </c>
+      <c r="P23">
+        <v>0.7513293565409359</v>
+      </c>
+      <c r="Q23">
+        <v>7.534249602704999</v>
+      </c>
+      <c r="R23">
+        <v>67.80824642434499</v>
+      </c>
+      <c r="S23">
+        <v>0.02237616276398705</v>
+      </c>
+      <c r="T23">
+        <v>0.02237616276398704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.158358999999999</v>
+      </c>
+      <c r="H24">
+        <v>9.475076999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.02978209565376923</v>
+      </c>
+      <c r="J24">
+        <v>0.02978209565376923</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01317533333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.039526</v>
+      </c>
+      <c r="O24">
+        <v>0.004149669026992586</v>
+      </c>
+      <c r="P24">
+        <v>0.004149669026992585</v>
+      </c>
+      <c r="Q24">
+        <v>0.04161243261133332</v>
+      </c>
+      <c r="R24">
+        <v>0.3745118935019999</v>
+      </c>
+      <c r="S24">
+        <v>0.0001235858398933767</v>
+      </c>
+      <c r="T24">
+        <v>0.0001235858398933767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.158358999999999</v>
+      </c>
+      <c r="H25">
+        <v>9.475076999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.02978209565376923</v>
+      </c>
+      <c r="J25">
+        <v>0.02978209565376923</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6874393333333333</v>
+      </c>
+      <c r="N25">
+        <v>2.062318</v>
+      </c>
+      <c r="O25">
+        <v>0.216514120538615</v>
+      </c>
+      <c r="P25">
+        <v>0.216514120538615</v>
+      </c>
+      <c r="Q25">
+        <v>2.171180205387333</v>
+      </c>
+      <c r="R25">
+        <v>19.540621848486</v>
+      </c>
+      <c r="S25">
+        <v>0.006448244248272753</v>
+      </c>
+      <c r="T25">
+        <v>0.006448244248272752</v>
       </c>
     </row>
   </sheetData>
